--- a/output/OCR 1301-1302/manual transcription/Adderbury_1301_wl.xlsx
+++ b/output/OCR 1301-1302/manual transcription/Adderbury_1301_wl.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubak\Documents\GitHub\student_assistant_manorial_records\output\OCR 1301-1302\manual transcription\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4683719-DCBC-4440-AFAC-F0427F58F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3A4B1-CC1D-44CD-B70B-5D3D47919677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18820" yWindow="0" windowWidth="19590" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adderbury Overview" sheetId="15" r:id="rId1"/>
     <sheet name="Adderbury Receipts" sheetId="14" r:id="rId2"/>
     <sheet name="Adderbury Expenses" sheetId="13" r:id="rId3"/>
-    <sheet name="raw data" sheetId="1" r:id="rId4"/>
-    <sheet name="Receipts" sheetId="2" r:id="rId5"/>
-    <sheet name="Expenses" sheetId="3" r:id="rId6"/>
+    <sheet name="Expenses" sheetId="3" r:id="rId4"/>
+    <sheet name="raw data" sheetId="1" r:id="rId5"/>
+    <sheet name="Receipts" sheetId="2" r:id="rId6"/>
     <sheet name="Stock" sheetId="4" r:id="rId7"/>
     <sheet name="Overview" sheetId="5" r:id="rId8"/>
     <sheet name="Issues of the Mills" sheetId="6" r:id="rId9"/>
@@ -461,8 +461,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B98E37BE-2082-41AF-97C4-C6E9C6391E9C}</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{B98E37BE-2082-41AF-97C4-C6E9C6391E9C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Difference from Dropbox. Should be 0,01</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="802">
   <si>
     <t>Heading</t>
   </si>
@@ -2868,12 +2886,27 @@
       <t>calculated previously</t>
     </r>
   </si>
+  <si>
+    <t>payment to 4 ploughmen, which they are accustomed to have for Saturday ploughings £1 4 shilling, because they have the ploughs for 2 Saturdays and the lord for the third Saturday.</t>
+  </si>
+  <si>
+    <t>Total, £3 10 shilling 7pence</t>
+  </si>
+  <si>
+    <t>2 oxen bought for the same £1 7 shilling Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stipend of 2 women assisting him for the same time 1 shilling 8pence </t>
+  </si>
+  <si>
+    <t>Total, 18 shilling 6.5pence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3024,6 +3057,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3180,7 +3219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3251,9 +3290,6 @@
     <xf numFmtId="1" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3299,6 +3335,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3333,6 +3373,7 @@
       <sheetName val="Issues of the Grange raw"/>
       <sheetName val="Sale of Corn Prices"/>
       <sheetName val="Prices"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Labour Rents"/>
     </sheetNames>
     <sheetDataSet>
@@ -3673,9 +3714,16 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kowalski, Kuba" id="{1259D2E0-AA9A-48EC-9712-AE59CDAC7987}" userId="S::kuba.kowalski@wur.nl::efd3b399-1095-4b34-9f84-abcd55d1b2f3" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3961,11 +4009,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G11" dT="2025-10-24T12:08:06.51" personId="{1259D2E0-AA9A-48EC-9712-AE59CDAC7987}" id="{B98E37BE-2082-41AF-97C4-C6E9C6391E9C}">
+    <text>Difference from Dropbox. Should be 0,01</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAE53DE-FCE3-4B0C-831C-2C980D1D69AF}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4634,7 +4690,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="41">
-        <f t="shared" ref="C44:F44" si="7">SUM(C42:C43)</f>
+        <f t="shared" ref="C44:D44" si="7">SUM(C42:C43)</f>
         <v>15</v>
       </c>
       <c r="D44" s="41">
@@ -4699,10 +4755,10 @@
       <c r="A50" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="73" t="s">
         <v>719</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
@@ -4712,14 +4768,14 @@
       <c r="A51" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="F51" s="47" t="s">
+      <c r="C51" s="45"/>
+      <c r="F51" s="46" t="s">
         <v>722</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="46" t="s">
         <v>723</v>
       </c>
     </row>
@@ -4914,28 +4970,28 @@
       <c r="G75" s="33"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="48" t="s">
         <v>741</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="G76" s="50"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="50" t="s">
         <v>471</v>
       </c>
       <c r="B77" s="35">
@@ -4953,7 +5009,7 @@
       <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="50" t="s">
         <v>744</v>
       </c>
       <c r="B78" s="35"/>
@@ -5316,25 +5372,25 @@
       <c r="A106" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B106" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="48" t="s">
         <v>741</v>
       </c>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="F106" s="50" t="s">
+      <c r="F106" s="49" t="s">
         <v>743</v>
       </c>
       <c r="G106" s="33"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="50" t="s">
         <v>753</v>
       </c>
       <c r="B107" s="35">
@@ -5405,19 +5461,19 @@
       <c r="A115" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="48" t="s">
         <v>741</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="F115" s="50" t="s">
+      <c r="F115" s="49" t="s">
         <v>743</v>
       </c>
       <c r="G115" s="33"/>
@@ -5459,37 +5515,37 @@
       <c r="B121" s="35"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="52" t="s">
+      <c r="A122" s="51" t="s">
         <v>765</v>
       </c>
       <c r="B122" s="35"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="52" t="s">
         <v>766</v>
       </c>
       <c r="B123" s="35"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="52" t="s">
         <v>767</v>
       </c>
       <c r="B124" s="35"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="52" t="s">
         <v>768</v>
       </c>
       <c r="B125" s="35"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="53" t="s">
+      <c r="A126" s="52" t="s">
         <v>769</v>
       </c>
       <c r="B126" s="35"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="53" t="s">
         <v>770</v>
       </c>
       <c r="B127" s="35">
@@ -5507,31 +5563,31 @@
       <c r="E127" s="22"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="52" t="s">
         <v>771</v>
       </c>
       <c r="B128" s="35"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="53" t="s">
+      <c r="A129" s="52" t="s">
         <v>772</v>
       </c>
       <c r="B129" s="35"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="53" t="s">
+      <c r="A130" s="52" t="s">
         <v>773</v>
       </c>
       <c r="B130" s="35"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="53" t="s">
+      <c r="A131" s="52" t="s">
         <v>774</v>
       </c>
       <c r="B131" s="35"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="53" t="s">
         <v>775</v>
       </c>
       <c r="B132" s="35">
@@ -5585,10 +5641,10 @@
       <c r="B136" s="36"/>
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="54"/>
       <c r="G136" s="33"/>
-      <c r="H136" s="56"/>
+      <c r="H136" s="55"/>
       <c r="I136" s="32"/>
     </row>
     <row r="137" spans="1:9">
@@ -5601,7 +5657,7 @@
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
-      <c r="H137" s="56"/>
+      <c r="H137" s="55"/>
       <c r="I137" s="32"/>
     </row>
     <row r="138" spans="1:9">
@@ -5612,27 +5668,27 @@
       <c r="A139" s="31" t="s">
         <v>575</v>
       </c>
-      <c r="B139" s="49" t="s">
+      <c r="B139" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D139" s="48" t="s">
         <v>741</v>
       </c>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="F139" s="50" t="s">
+      <c r="F139" s="49" t="s">
         <v>743</v>
       </c>
       <c r="G139" s="33"/>
-      <c r="H139" s="56"/>
+      <c r="H139" s="55"/>
       <c r="I139" s="32"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="51" t="s">
+      <c r="A140" s="50" t="s">
         <v>778</v>
       </c>
       <c r="B140" s="35">
@@ -5690,7 +5746,7 @@
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
-      <c r="H144" s="56"/>
+      <c r="H144" s="55"/>
       <c r="I144" s="32"/>
     </row>
     <row r="145" spans="1:9">
@@ -5703,7 +5759,7 @@
       <c r="E145" s="33"/>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
-      <c r="H145" s="56"/>
+      <c r="H145" s="55"/>
       <c r="I145" s="32"/>
     </row>
     <row r="146" spans="1:9">
@@ -5714,23 +5770,23 @@
       <c r="A147" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D147" s="49" t="s">
+      <c r="D147" s="48" t="s">
         <v>741</v>
       </c>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="F147" s="50" t="s">
+      <c r="F147" s="49" t="s">
         <v>743</v>
       </c>
       <c r="G147" s="33"/>
-      <c r="H147" s="56"/>
+      <c r="H147" s="55"/>
       <c r="I147" s="32"/>
     </row>
     <row r="148" spans="1:9">
@@ -5761,7 +5817,7 @@
       <c r="E151" s="32"/>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
-      <c r="H151" s="56"/>
+      <c r="H151" s="55"/>
       <c r="I151" s="32"/>
     </row>
     <row r="152" spans="1:9">
@@ -5774,7 +5830,7 @@
       <c r="E152" s="32"/>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
-      <c r="H152" s="56"/>
+      <c r="H152" s="55"/>
       <c r="I152" s="32"/>
     </row>
     <row r="153" spans="1:9">
@@ -5785,23 +5841,23 @@
       <c r="A154" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="B154" s="49" t="s">
+      <c r="B154" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D154" s="49" t="s">
+      <c r="D154" s="48" t="s">
         <v>741</v>
       </c>
-      <c r="E154" s="50" t="s">
+      <c r="E154" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="F154" s="50" t="s">
+      <c r="F154" s="49" t="s">
         <v>743</v>
       </c>
       <c r="G154" s="33"/>
-      <c r="H154" s="56"/>
+      <c r="H154" s="55"/>
       <c r="I154" s="32"/>
     </row>
     <row r="155" spans="1:9">
@@ -5845,7 +5901,7 @@
       <c r="E158" s="33"/>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
-      <c r="H158" s="56"/>
+      <c r="H158" s="55"/>
       <c r="I158" s="32"/>
     </row>
     <row r="159" spans="1:9">
@@ -5858,7 +5914,7 @@
       <c r="E159" s="33"/>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
-      <c r="H159" s="56"/>
+      <c r="H159" s="55"/>
       <c r="I159" s="32"/>
     </row>
     <row r="160" spans="1:9">
@@ -5870,16 +5926,16 @@
       <c r="B161" s="35"/>
     </row>
     <row r="162" spans="1:5" ht="16" thickBot="1">
-      <c r="A162" s="57"/>
-      <c r="B162" s="58" t="s">
+      <c r="A162" s="56"/>
+      <c r="B162" s="57" t="s">
         <v>647</v>
       </c>
-      <c r="C162" s="59"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="61"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="60"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="62" t="s">
+      <c r="A163" s="61" t="s">
         <v>790</v>
       </c>
       <c r="B163" s="22">
@@ -5887,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="C163" s="30"/>
-      <c r="E163" s="63"/>
+      <c r="E163" s="62"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="64" t="s">
+      <c r="A164" s="63" t="s">
         <v>791</v>
       </c>
       <c r="B164" s="22">
@@ -5898,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="C164" s="30"/>
-      <c r="E164" s="63"/>
+      <c r="E164" s="62"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="64" t="s">
+      <c r="A165" s="63" t="s">
         <v>792</v>
       </c>
       <c r="B165" s="22">
@@ -5909,10 +5965,10 @@
         <v>0</v>
       </c>
       <c r="C165" s="30"/>
-      <c r="E165" s="63"/>
+      <c r="E165" s="62"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="64" t="s">
+      <c r="A166" s="63" t="s">
         <v>793</v>
       </c>
       <c r="B166" s="22">
@@ -5920,50 +5976,50 @@
         <v>0</v>
       </c>
       <c r="C166" s="30"/>
-      <c r="E166" s="63"/>
+      <c r="E166" s="62"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="65"/>
+      <c r="A167" s="64"/>
       <c r="C167" s="30"/>
-      <c r="E167" s="63"/>
+      <c r="E167" s="62"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="66" t="s">
+      <c r="A168" s="65" t="s">
         <v>794</v>
       </c>
-      <c r="B168" s="67" t="e">
+      <c r="B168" s="66" t="e">
         <f>F37/B163</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C168" s="68"/>
-      <c r="E168" s="63"/>
+      <c r="C168" s="67"/>
+      <c r="E168" s="62"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="64" t="s">
+      <c r="A169" s="63" t="s">
         <v>795</v>
       </c>
-      <c r="B169" s="67" t="e">
+      <c r="B169" s="66" t="e">
         <f>F37/B166</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C169" s="30"/>
-      <c r="E169" s="63"/>
+      <c r="E169" s="62"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="65"/>
+      <c r="A170" s="64"/>
       <c r="C170" s="30"/>
-      <c r="E170" s="63"/>
+      <c r="E170" s="62"/>
     </row>
     <row r="171" spans="1:5" ht="16" thickBot="1">
-      <c r="A171" s="69" t="s">
+      <c r="A171" s="68" t="s">
         <v>796</v>
       </c>
-      <c r="B171" s="70">
+      <c r="B171" s="69">
         <v>4.0344088E-2</v>
       </c>
-      <c r="C171" s="71"/>
-      <c r="D171" s="72"/>
-      <c r="E171" s="73"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="71"/>
+      <c r="E171" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13911,14 +13967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB4FE1-3993-4CC2-866D-1535047A68E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB4FE1-3993-4CC2-866D-1535047A68E1}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13930,7 +13986,7 @@
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.1796875" customWidth="1"/>
+    <col min="8" max="8" width="92.26953125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="18.81640625" customWidth="1"/>
   </cols>
@@ -13975,228 +14031,586 @@
       <c r="A3" s="14" t="s">
         <v>419</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>B3+C3/20+D3/240</f>
+        <v>0.1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>420</v>
+      </c>
       <c r="J3" s="3">
         <f>F3</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K3" s="3">
         <f>F3</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>419</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4.5</v>
+      </c>
+      <c r="F4" s="3">
+        <f>B4+C4/20+D4/240</f>
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J5" si="0">F4</f>
-        <v>0</v>
+        <v>0.11875000000000001</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K5" si="1">F4</f>
-        <v>0</v>
+        <v>0.11875000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>419</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8.5</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F10" si="2">B5+C5/20+D5/240</f>
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5416666666666669E-2</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5416666666666669E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>419</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>419</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>419</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>419</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>419</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5291666666666668</v>
+      </c>
+      <c r="H10" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="F11" s="3">
+        <f>SUM(F3:F9)</f>
+        <v>3.5291666666666668</v>
+      </c>
+      <c r="G11" s="15">
+        <f>F10-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="14" t="s">
         <v>423</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f>B13+C13/20+D13/240</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
       <c r="J13" s="3">
         <f>F13</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K13" s="3">
         <f>F13</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>423</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F24" si="3">B14+C14/20+D14/240</f>
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:J21" si="2">F14</f>
-        <v>0</v>
+        <f t="shared" ref="J14:J21" si="4">F14</f>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" ref="K14:K21" si="3">F14</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K21" si="5">F14</f>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>423</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>423</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>423</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>423</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
       <c r="J18" s="3">
         <f>F18</f>
-        <v>0</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>423</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8.5</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.5416666666666666E-2</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.5416666666666666E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>423</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.05</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>423</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>423</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>423</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>145</v>
+      </c>
       <c r="J23" s="3">
         <f>F23</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K23" s="3">
         <f>F23</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>423</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1916666666666667</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14" t="s">
         <v>652</v>
       </c>
+      <c r="F25" s="3">
+        <f>SUM(F13:F23)</f>
+        <v>1.1916666666666669</v>
+      </c>
+      <c r="G25" s="15">
+        <f>F24-F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14" t="s">
         <v>426</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <f>B27+C27/20+D27/240</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H27" t="s">
+        <v>427</v>
+      </c>
       <c r="J27" s="3">
         <f>F27</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K27" s="3">
         <f>F27</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L27" t="s">
         <v>653</v>
@@ -14206,245 +14620,589 @@
       <c r="A28" t="s">
         <v>426</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F37" si="6">B28+C28/20+D28/240</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28:J32" si="4">F28</f>
-        <v>0</v>
+        <f t="shared" ref="J28:J32" si="7">F28</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" ref="K28:K32" si="5">F28</f>
-        <v>0</v>
+        <f t="shared" ref="K28:K32" si="8">F28</f>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>426</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
       <c r="J29" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>426</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="H30" t="s">
+        <v>151</v>
+      </c>
       <c r="J30" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.05</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>426</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>152</v>
+      </c>
       <c r="J31" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.2</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>426</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3.5</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
       <c r="J32" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.4583333333333334E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>426</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>426</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
       <c r="J34" s="3">
         <f>F34</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K34" s="3">
         <f>F34</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>426</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="6"/>
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
       <c r="J35" s="3">
         <f>F35</f>
-        <v>0</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="K35" s="3">
         <f>F35</f>
-        <v>0</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>426</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="6"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="H36" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>426</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95624999999999993</v>
+      </c>
+      <c r="H37" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="14" t="s">
         <v>654</v>
       </c>
+      <c r="F38" s="3">
+        <f>SUM(F27:F36)</f>
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="G38" s="15">
+        <f>F37-F38</f>
+        <v>-1.0416666666666852E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="14" t="s">
         <v>430</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <f>B40+C40/20+D40/240</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>431</v>
+      </c>
       <c r="J40" s="3">
         <f>F40</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K40" s="3">
         <f>F40</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>430</v>
       </c>
+      <c r="B41" s="74">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3.5</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" ref="F41:F49" si="9">B41+C41/20+D41/240</f>
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
       <c r="J41" s="3">
-        <f t="shared" ref="J41:J48" si="6">F41</f>
-        <v>0</v>
+        <f t="shared" ref="J41:J48" si="10">F41</f>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" ref="K41:K48" si="7">F41</f>
-        <v>0</v>
+        <f t="shared" ref="K41:K48" si="11">F41</f>
+        <v>1.4583333333333334E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>430</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>162</v>
+      </c>
       <c r="J42" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.2</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>430</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="H43" t="s">
+        <v>163</v>
+      </c>
       <c r="J43" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.125</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>430</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>164</v>
+      </c>
       <c r="J44" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.2</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>430</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>165</v>
+      </c>
       <c r="J45" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>430</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="H46" t="s">
+        <v>166</v>
+      </c>
       <c r="J46" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.05</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>430</v>
       </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="H47" t="s">
+        <v>167</v>
+      </c>
       <c r="J47" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.125</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>430</v>
       </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>800</v>
+      </c>
       <c r="J48" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>430</v>
       </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>6.5</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="9"/>
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="H49" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="G50" s="15"/>
+      <c r="F50" s="3">
+        <f>SUM(F40:F48)</f>
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G50" s="15">
+        <f>F49-F50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="14" t="s">
         <v>433</v>
       </c>
+      <c r="H52" t="s">
+        <v>434</v>
+      </c>
       <c r="J52" s="3">
         <f>F52</f>
         <v>0</v>
@@ -14461,12 +15219,15 @@
       <c r="A53" t="s">
         <v>433</v>
       </c>
+      <c r="H53" t="s">
+        <v>171</v>
+      </c>
       <c r="J53" s="3">
-        <f t="shared" ref="J53:J56" si="8">F53</f>
+        <f t="shared" ref="J53:J56" si="12">F53</f>
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" ref="K53:K56" si="9">F53</f>
+        <f t="shared" ref="K53:K56" si="13">F53</f>
         <v>0</v>
       </c>
     </row>
@@ -14474,12 +15235,15 @@
       <c r="A54" t="s">
         <v>433</v>
       </c>
+      <c r="H54" t="s">
+        <v>172</v>
+      </c>
       <c r="J54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14487,12 +15251,15 @@
       <c r="A55" t="s">
         <v>433</v>
       </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
       <c r="J55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14500,12 +15267,15 @@
       <c r="A56" t="s">
         <v>433</v>
       </c>
+      <c r="H56" t="s">
+        <v>174</v>
+      </c>
       <c r="J56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14513,6 +15283,9 @@
       <c r="A57" t="s">
         <v>433</v>
       </c>
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
       <c r="L57" t="s">
         <v>657</v>
       </c>
@@ -14521,11 +15294,17 @@
       <c r="A58" t="s">
         <v>433</v>
       </c>
+      <c r="H58" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="14" t="s">
         <v>658</v>
       </c>
+      <c r="H59" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="14" t="s">
@@ -14545,11 +15324,11 @@
         <v>436</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" ref="J62:J65" si="10">F62</f>
+        <f t="shared" ref="J62:J65" si="14">F62</f>
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" ref="K62:K65" si="11">F62</f>
+        <f t="shared" ref="K62:K65" si="15">F62</f>
         <v>0</v>
       </c>
     </row>
@@ -14558,11 +15337,11 @@
         <v>436</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14571,11 +15350,11 @@
         <v>436</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14584,11 +15363,11 @@
         <v>436</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14809,13 +15588,2710 @@
     </row>
     <row r="116" spans="1:1" ht="15.5">
       <c r="A116" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10">
+        <v>0.12</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4.5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>0.09</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>8.5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13">
+        <v>1.2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15">
+        <v>0.15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16">
+        <v>0.53</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17">
+        <v>1.35</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18">
+        <v>3.54</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22">
+        <v>0.06</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23">
+        <v>0.08</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>423</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25">
+        <v>0.03</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27">
+        <v>0.04</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>8.5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>423</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29">
+        <v>0.02</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33">
+        <v>1.19</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34">
+        <v>1.21</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>2.0000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37">
+        <v>0.13</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>426</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39">
+        <v>0.02</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40">
+        <v>0.02</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>426</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43">
+        <v>0.01</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>3.5</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>426</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>426</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>426</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46">
+        <v>0.03</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47">
+        <v>0.26</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>2.5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" t="s">
+        <v>428</v>
+      </c>
+      <c r="C49">
+        <v>0.18</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>426</v>
+      </c>
+      <c r="B50" t="s">
+        <v>429</v>
+      </c>
+      <c r="C50">
+        <v>0.96</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>1.5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>426</v>
+      </c>
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51">
+        <v>0.97</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>430</v>
+      </c>
+      <c r="B54" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54">
+        <v>0.06</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>430</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55">
+        <v>0.01</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>3.5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>430</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56">
+        <v>0.2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57">
+        <v>0.12</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58">
+        <v>0.2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>430</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60">
+        <v>0.05</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61">
+        <v>0.12</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" t="s">
+        <v>432</v>
+      </c>
+      <c r="C63">
+        <v>0.08</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64">
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.83000000000000018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>433</v>
+      </c>
+      <c r="B67" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67">
+        <v>0.65</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>433</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>433</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69">
+        <v>0.08</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>433</v>
+      </c>
+      <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>433</v>
+      </c>
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71">
+        <v>0.08</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>6.5</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72">
+        <v>0.03</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>433</v>
+      </c>
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73">
+        <v>0.16</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>433</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74">
+        <v>0.3</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>433</v>
+      </c>
+      <c r="B75" t="s">
+        <v>435</v>
+      </c>
+      <c r="C75">
+        <v>1.3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76">
+        <v>1.3</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>436</v>
+      </c>
+      <c r="B79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79">
+        <v>0.05</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80">
+        <v>0.03</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>436</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81">
+        <v>0.03</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>6.5</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82">
+        <v>0.01</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>3.5</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>436</v>
+      </c>
+      <c r="B83" t="s">
+        <v>438</v>
+      </c>
+      <c r="C83">
+        <v>0.12</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>4.5</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>436</v>
+      </c>
+      <c r="B84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84">
+        <v>0.24</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>439</v>
+      </c>
+      <c r="B87" t="s">
+        <v>440</v>
+      </c>
+      <c r="C87">
+        <v>1.56</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>439</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>439</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89">
+        <v>0.16</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>1.5</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>439</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>439</v>
+      </c>
+      <c r="B91" t="s">
+        <v>441</v>
+      </c>
+      <c r="C91">
+        <v>0.83</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>6.25</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>439</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>439</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <v>0.15</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>439</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94">
+        <v>0.01</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>439</v>
+      </c>
+      <c r="B95" t="s">
+        <v>442</v>
+      </c>
+      <c r="C95">
+        <v>0.34</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>439</v>
+      </c>
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>439</v>
+      </c>
+      <c r="B97" t="s">
+        <v>443</v>
+      </c>
+      <c r="C97">
+        <v>3.14</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>9.75</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>439</v>
+      </c>
+      <c r="B98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98">
+        <v>6.19</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C101">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>1.5</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>444</v>
+      </c>
+      <c r="B102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C102">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>1.5</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>447</v>
+      </c>
+      <c r="B106" t="s">
+        <v>448</v>
+      </c>
+      <c r="C106">
+        <v>0.83</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>447</v>
+      </c>
+      <c r="B107" t="s">
+        <v>449</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>447</v>
+      </c>
+      <c r="B109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C109">
+        <v>0.83</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>7</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>447</v>
+      </c>
+      <c r="B110" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110">
+        <v>1.66</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>451</v>
+      </c>
+      <c r="B113" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113">
+        <v>0.34</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>8.5</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>451</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>451</v>
+      </c>
+      <c r="B115" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115">
+        <v>0.09</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>10.5</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>451</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>451</v>
+      </c>
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117">
+        <v>0.03</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>451</v>
+      </c>
+      <c r="B118" t="s">
+        <v>453</v>
+      </c>
+      <c r="C118">
+        <v>0.09</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>451</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>451</v>
+      </c>
+      <c r="B120" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120">
+        <v>1.97</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>19</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>451</v>
+      </c>
+      <c r="B121" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121">
+        <v>2.52</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>455</v>
+      </c>
+      <c r="B124" t="s">
+        <v>456</v>
+      </c>
+      <c r="C124">
+        <v>15.64</v>
+      </c>
+      <c r="D124">
+        <v>15</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="F124">
+        <v>9.75</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>455</v>
+      </c>
+      <c r="B125" t="s">
+        <v>457</v>
+      </c>
+      <c r="C125">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="D125">
+        <v>64</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>9.25</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>455</v>
+      </c>
+      <c r="B126" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>458</v>
+      </c>
+      <c r="B129" t="s">
+        <v>459</v>
+      </c>
+      <c r="C129">
+        <v>1.77</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>458</v>
+      </c>
+      <c r="B130" t="s">
+        <v>460</v>
+      </c>
+      <c r="C130">
+        <v>1.77</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>15</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>458</v>
+      </c>
+      <c r="B131" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131">
+        <v>1.77</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>461</v>
+      </c>
+      <c r="B134" t="s">
+        <v>462</v>
+      </c>
+      <c r="C134">
+        <v>46</v>
+      </c>
+      <c r="D134">
+        <v>46</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>461</v>
+      </c>
+      <c r="B135" t="s">
+        <v>463</v>
+      </c>
+      <c r="C135">
+        <v>16.27</v>
+      </c>
+      <c r="D135">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>4.25</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>-29.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ317"/>
   <sheetViews>
@@ -28083,7 +31559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
@@ -30196,2702 +33672,6 @@
       </c>
       <c r="H104">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I135"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10">
-        <v>0.12</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11">
-        <v>0.09</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>8.5</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>419</v>
-      </c>
-      <c r="B13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13">
-        <v>1.2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15">
-        <v>0.15</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16">
-        <v>0.53</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" t="s">
-        <v>422</v>
-      </c>
-      <c r="C17">
-        <v>1.35</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18">
-        <v>3.54</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B21" t="s">
-        <v>424</v>
-      </c>
-      <c r="C21">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22">
-        <v>0.06</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1.5</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23">
-        <v>0.08</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>423</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24">
-        <v>0.02</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25">
-        <v>0.03</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>423</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26">
-        <v>0.01</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>423</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27">
-        <v>0.04</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>8.5</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>423</v>
-      </c>
-      <c r="B28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28">
-        <v>0.05</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29">
-        <v>0.02</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30">
-        <v>0.25</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>423</v>
-      </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32">
-        <v>0.1</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B33" t="s">
-        <v>425</v>
-      </c>
-      <c r="C33">
-        <v>1.19</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>423</v>
-      </c>
-      <c r="B34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34">
-        <v>1.21</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>2.0000000000000021E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>426</v>
-      </c>
-      <c r="B37" t="s">
-        <v>427</v>
-      </c>
-      <c r="C37">
-        <v>0.13</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>426</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>426</v>
-      </c>
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39">
-        <v>0.02</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>426</v>
-      </c>
-      <c r="B40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40">
-        <v>0.02</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>426</v>
-      </c>
-      <c r="B41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41">
-        <v>0.05</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>426</v>
-      </c>
-      <c r="B42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42">
-        <v>0.2</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>426</v>
-      </c>
-      <c r="B43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43">
-        <v>0.01</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>3.5</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>426</v>
-      </c>
-      <c r="B44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>426</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>426</v>
-      </c>
-      <c r="B46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46">
-        <v>0.03</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>426</v>
-      </c>
-      <c r="B47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47">
-        <v>0.26</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47">
-        <v>2.5</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>426</v>
-      </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>426</v>
-      </c>
-      <c r="B49" t="s">
-        <v>428</v>
-      </c>
-      <c r="C49">
-        <v>0.18</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>8</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>426</v>
-      </c>
-      <c r="B50" t="s">
-        <v>429</v>
-      </c>
-      <c r="C50">
-        <v>0.96</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>1.5</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>426</v>
-      </c>
-      <c r="B51" t="s">
-        <v>364</v>
-      </c>
-      <c r="C51">
-        <v>0.97</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1.0000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>430</v>
-      </c>
-      <c r="B54" t="s">
-        <v>431</v>
-      </c>
-      <c r="C54">
-        <v>0.06</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>430</v>
-      </c>
-      <c r="B55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55">
-        <v>0.01</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>3.5</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>430</v>
-      </c>
-      <c r="B56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56">
-        <v>0.2</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>430</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57">
-        <v>0.12</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>430</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58">
-        <v>0.2</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>430</v>
-      </c>
-      <c r="B59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>430</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60">
-        <v>0.05</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>430</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61">
-        <v>0.12</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>430</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>430</v>
-      </c>
-      <c r="B63" t="s">
-        <v>432</v>
-      </c>
-      <c r="C63">
-        <v>0.08</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>8</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>430</v>
-      </c>
-      <c r="B64" t="s">
-        <v>364</v>
-      </c>
-      <c r="C64">
-        <v>0.91000000000000014</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0.83000000000000018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>433</v>
-      </c>
-      <c r="B67" t="s">
-        <v>434</v>
-      </c>
-      <c r="C67">
-        <v>0.65</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>13</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>433</v>
-      </c>
-      <c r="B68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>433</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69">
-        <v>0.08</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>8</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>433</v>
-      </c>
-      <c r="B70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>433</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71">
-        <v>0.08</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>6.5</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>433</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72">
-        <v>0.03</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>6</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>433</v>
-      </c>
-      <c r="B73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73">
-        <v>0.16</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73">
-        <v>2.5</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>433</v>
-      </c>
-      <c r="B74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74">
-        <v>0.3</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>6</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>433</v>
-      </c>
-      <c r="B75" t="s">
-        <v>435</v>
-      </c>
-      <c r="C75">
-        <v>1.3</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>6</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>433</v>
-      </c>
-      <c r="B76" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76">
-        <v>1.3</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>436</v>
-      </c>
-      <c r="B79" t="s">
-        <v>437</v>
-      </c>
-      <c r="C79">
-        <v>0.05</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>436</v>
-      </c>
-      <c r="B80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80">
-        <v>0.03</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>7</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>436</v>
-      </c>
-      <c r="B81" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81">
-        <v>0.03</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>6.5</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>436</v>
-      </c>
-      <c r="B82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82">
-        <v>0.01</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>3.5</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>436</v>
-      </c>
-      <c r="B83" t="s">
-        <v>438</v>
-      </c>
-      <c r="C83">
-        <v>0.12</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83">
-        <v>4.5</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>436</v>
-      </c>
-      <c r="B84" t="s">
-        <v>364</v>
-      </c>
-      <c r="C84">
-        <v>0.24</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>439</v>
-      </c>
-      <c r="B87" t="s">
-        <v>440</v>
-      </c>
-      <c r="C87">
-        <v>1.56</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>11</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>439</v>
-      </c>
-      <c r="B88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>439</v>
-      </c>
-      <c r="B89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89">
-        <v>0.16</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>1.5</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>439</v>
-      </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>439</v>
-      </c>
-      <c r="B91" t="s">
-        <v>441</v>
-      </c>
-      <c r="C91">
-        <v>0.83</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>16</v>
-      </c>
-      <c r="F91">
-        <v>6.25</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>439</v>
-      </c>
-      <c r="B92" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>439</v>
-      </c>
-      <c r="B93" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93">
-        <v>0.15</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-      <c r="F93">
-        <v>11</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>439</v>
-      </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94">
-        <v>0.01</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>439</v>
-      </c>
-      <c r="B95" t="s">
-        <v>442</v>
-      </c>
-      <c r="C95">
-        <v>0.34</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>6</v>
-      </c>
-      <c r="F95">
-        <v>9</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>439</v>
-      </c>
-      <c r="B96" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>439</v>
-      </c>
-      <c r="B97" t="s">
-        <v>443</v>
-      </c>
-      <c r="C97">
-        <v>3.14</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>9.75</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>439</v>
-      </c>
-      <c r="B98" t="s">
-        <v>364</v>
-      </c>
-      <c r="C98">
-        <v>6.19</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>444</v>
-      </c>
-      <c r="B101" t="s">
-        <v>445</v>
-      </c>
-      <c r="C101">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
-      </c>
-      <c r="F101">
-        <v>1.5</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>444</v>
-      </c>
-      <c r="B102" t="s">
-        <v>446</v>
-      </c>
-      <c r="C102">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
-      </c>
-      <c r="F102">
-        <v>1.5</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>444</v>
-      </c>
-      <c r="B103" t="s">
-        <v>364</v>
-      </c>
-      <c r="C103">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>447</v>
-      </c>
-      <c r="B106" t="s">
-        <v>448</v>
-      </c>
-      <c r="C106">
-        <v>0.83</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>16</v>
-      </c>
-      <c r="F106">
-        <v>7</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>447</v>
-      </c>
-      <c r="B107" t="s">
-        <v>449</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>447</v>
-      </c>
-      <c r="B108" t="s">
-        <v>200</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>447</v>
-      </c>
-      <c r="B109" t="s">
-        <v>450</v>
-      </c>
-      <c r="C109">
-        <v>0.83</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>16</v>
-      </c>
-      <c r="F109">
-        <v>7</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>447</v>
-      </c>
-      <c r="B110" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110">
-        <v>1.66</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>451</v>
-      </c>
-      <c r="B113" t="s">
-        <v>452</v>
-      </c>
-      <c r="C113">
-        <v>0.34</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>6</v>
-      </c>
-      <c r="F113">
-        <v>8.5</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>451</v>
-      </c>
-      <c r="B114" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
-        <v>451</v>
-      </c>
-      <c r="B115" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115">
-        <v>0.09</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>10.5</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>451</v>
-      </c>
-      <c r="B116" t="s">
-        <v>126</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>451</v>
-      </c>
-      <c r="B117" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117">
-        <v>0.03</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>6</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
-        <v>451</v>
-      </c>
-      <c r="B118" t="s">
-        <v>453</v>
-      </c>
-      <c r="C118">
-        <v>0.09</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>10</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>451</v>
-      </c>
-      <c r="B119" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>451</v>
-      </c>
-      <c r="B120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C120">
-        <v>1.97</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>19</v>
-      </c>
-      <c r="F120">
-        <v>6</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>451</v>
-      </c>
-      <c r="B121" t="s">
-        <v>364</v>
-      </c>
-      <c r="C121">
-        <v>2.52</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" t="s">
-        <v>455</v>
-      </c>
-      <c r="B124" t="s">
-        <v>456</v>
-      </c>
-      <c r="C124">
-        <v>15.64</v>
-      </c>
-      <c r="D124">
-        <v>15</v>
-      </c>
-      <c r="E124">
-        <v>12</v>
-      </c>
-      <c r="F124">
-        <v>9.75</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" t="s">
-        <v>455</v>
-      </c>
-      <c r="B125" t="s">
-        <v>457</v>
-      </c>
-      <c r="C125">
-        <v>64.040000000000006</v>
-      </c>
-      <c r="D125">
-        <v>64</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>9.25</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" t="s">
-        <v>455</v>
-      </c>
-      <c r="B126" t="s">
-        <v>364</v>
-      </c>
-      <c r="C126">
-        <v>64.040000000000006</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" t="s">
-        <v>458</v>
-      </c>
-      <c r="B129" t="s">
-        <v>459</v>
-      </c>
-      <c r="C129">
-        <v>1.77</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>15</v>
-      </c>
-      <c r="F129">
-        <v>5</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" t="s">
-        <v>458</v>
-      </c>
-      <c r="B130" t="s">
-        <v>460</v>
-      </c>
-      <c r="C130">
-        <v>1.77</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>15</v>
-      </c>
-      <c r="F130">
-        <v>5</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" t="s">
-        <v>458</v>
-      </c>
-      <c r="B131" t="s">
-        <v>364</v>
-      </c>
-      <c r="C131">
-        <v>1.77</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" t="s">
-        <v>461</v>
-      </c>
-      <c r="B134" t="s">
-        <v>462</v>
-      </c>
-      <c r="C134">
-        <v>46</v>
-      </c>
-      <c r="D134">
-        <v>46</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" t="s">
-        <v>461</v>
-      </c>
-      <c r="B135" t="s">
-        <v>463</v>
-      </c>
-      <c r="C135">
-        <v>16.27</v>
-      </c>
-      <c r="D135">
-        <v>16</v>
-      </c>
-      <c r="E135">
-        <v>5</v>
-      </c>
-      <c r="F135">
-        <v>4.25</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>-29.73</v>
       </c>
     </row>
   </sheetData>
